--- a/things needed for launch.xlsx
+++ b/things needed for launch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="14540" yWindow="5340" windowWidth="29440" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">If I cannot accurately get where somebody is by their zipcode initially I will bounce them to a page that requires them to submit where they are. </t>
-  </si>
-  <si>
-    <t>Create link tracking</t>
-  </si>
-  <si>
-    <t>For all vendorstats_types I must update the website so these details are actually tracked in the database for reports and stats</t>
-  </si>
-  <si>
-    <t>Create services page for restaurants/adding restaurant</t>
-  </si>
-  <si>
-    <t>Create a page for the public to see what it takes to create a listing as a restaurant to add</t>
   </si>
   <si>
     <t>Consumer</t>
@@ -523,21 +511,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="76.375" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -548,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="D8" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -565,13 +553,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -585,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -599,37 +587,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -641,79 +629,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D26" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/things needed for launch.xlsx
+++ b/things needed for launch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="5340" windowWidth="29440" windowHeight="17580" tabRatio="500"/>
+    <workbookView xWindow="14535" yWindow="5340" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -109,19 +109,72 @@
   </si>
   <si>
     <t>shit</t>
+  </si>
+  <si>
+    <t>1. Purchase dedicated server</t>
+  </si>
+  <si>
+    <t>2. Purchase side shared unlimited hosting plan for images</t>
+  </si>
+  <si>
+    <t>3. Create conversion for uploading images to side server including outputting thumbnails</t>
+  </si>
+  <si>
+    <t>4. Modify restaurant page to support images, possibly create pop up for slideshow on images</t>
+  </si>
+  <si>
+    <t>5. Allow restaurants to be able to choose their main avatar and if they have only 1 picture automatically choose that as the first picture.</t>
+  </si>
+  <si>
+    <t>6. Review the restaurant page on basic functionality such as follow/unfollow, create a review as a anonymous user or logged in, claim restaurant, and contact restaurant.</t>
+  </si>
+  <si>
+    <t>7. Create the PPC Adwords page and integrate keyword based data input to attribute to the ppc adwords campaign. Update API code to support the additional keywords users may want to find a business for.</t>
+  </si>
+  <si>
+    <t>8. Finish promotional and coupon administration page development and add the data to be displayed on restaurant page. Also follower feeds.</t>
+  </si>
+  <si>
+    <t>9. Create a list based restaurant lookup with a small side map of restaurants listed. Create the pagination based on JavaScript and not reloading the page.</t>
+  </si>
+  <si>
+    <t>10. Update the customer feed to allow restaurant promotions and deals to be viewed and displayed</t>
+  </si>
+  <si>
+    <t>11. Update customer profiles to display their user data and allow them to upload an avatar.</t>
+  </si>
+  <si>
+    <t>12. Update the home page for mobile optimization. Not displaying restaurants on the home page but displaying categories and things they might be interested in. </t>
+  </si>
+  <si>
+    <t>13. Update the map view page to show recently opened restaurants and save it in cookies not database.</t>
+  </si>
+  <si>
+    <t>14. Update the business page to create a more efficient marketing layout</t>
+  </si>
+  <si>
+    <t>15. Finish the subscription signup and payout. Make sure I also add somewhere in the admin for businesses to let them know when their subscription expires.</t>
+  </si>
+  <si>
+    <t>16. Update the support page for a JavaScript based search and display function for people's FAQ. Also allow them to submit email until further support development can be made. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF454545"/>
+      <name val=".SFUIText"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,9 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,18 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="76.375" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -671,8 +727,89 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="18">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
